--- a/biology/Botanique/Erbaluce/Erbaluce.xlsx
+++ b/biology/Botanique/Erbaluce/Erbaluce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'erbaluce est un cépage italien de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient du nord de l'Italie.
 Il est classé en cépage d'appoint pour les DOC de Canavese (it), Colline Novaresi, Coste della Sesia et Erbaluce di Caluso.
@@ -546,7 +560,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, blanc.
 Jeunes feuilles glabres, vertes à dessous aranéeux.
@@ -578,7 +594,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le débourrement est plutôt précoce.
 La maturité est de troisième époque tardive : 35 jours après le chasselas.
@@ -610,7 +628,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes à grandes et les baies sont de taille moyenne. La grappe est cylindrique, avec 2 ou 3 ailerons. Le cépage est de très bonne vigueur et d'une fertilité moyenne. Il est sensible aux gelées de printemps et à l'oïdium mais résiste bien à la pourriture.
 Il donne des vins blancs secs mais il est surtout connu pour ses vins de paille.
@@ -643,7 +663,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'erbaluce est connu sous les noms de albaluce, alba-lucenti, bianco rusti, erba-luce, erbalus, erbalucente, uva rustia.
 </t>
